--- a/classfiers/mega/svm/smote/mega-svm-linear-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-linear-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8921568627450981</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9837837837837838</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9357326478149101</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9957341124908693</v>
+        <v>0.9888715458434502</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.923469387755102</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9783783783783784</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9501312335958005</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9848648648648649</v>
+        <v>0.9937565036420395</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9635416666666666</v>
+        <v>0.9839572192513369</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9814323607427056</v>
+        <v>0.9865951742627346</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9956172388604821</v>
+        <v>0.9995375187882992</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.997289972899729</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9945945945945946</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9945945945945946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9973045822102425</v>
+        <v>0.9945945945945946</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9987436084733382</v>
+        <v>0.9998837547224645</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.954758314616169</v>
+        <v>0.9374805491045901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9913513513513514</v>
+        <v>0.992467306015693</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9723781594526775</v>
+        <v>0.9603679264407642</v>
       </c>
       <c r="E7" t="n">
-        <v>0.994991964937911</v>
+        <v>0.9964098645992505</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/svm/smote/mega-svm-linear-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-linear-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8314606741573034</v>
+        <v>0.8379052369077307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9888715458434502</v>
+        <v>0.9891810510836456</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9940476190476191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9910979228486648</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9937565036420395</v>
+        <v>0.9989146038303981</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9839572192513369</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9865951742627346</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995375187882992</v>
+        <v>0.9997198977626833</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9941176470588236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9970501474926253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998837547224645</v>
+        <v>0.9997198977626834</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9374805491045901</v>
+        <v>0.9401076982517145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.992467306015693</v>
+        <v>0.995266272189349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9603679264407642</v>
+        <v>0.9634407499453793</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9964098645992505</v>
+        <v>0.9975070900878821</v>
       </c>
     </row>
   </sheetData>
